--- a/test_cases/formInfo20190709_163114.xlsx
+++ b/test_cases/formInfo20190709_163114.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_8FE90D040C940E324707ACD298E480D6A2D84BAB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1801445E-64A2-904B-8039-57FBEADFC489}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
     <sheet name="Case1" sheetId="4" r:id="rId2"/>
-    <sheet name="Case2" sheetId="5" r:id="rId3"/>
+    <sheet name="TestMessage" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Key</t>
     <phoneticPr fontId="5"/>
@@ -65,6 +63,9 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>lib\formInfo.xaml</t>
+  </si>
+  <si>
     <t>arg_formInfo</t>
   </si>
   <si>
@@ -115,15 +116,19 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>C:\Users\thangiswho\Desktop\uipath_AutomationTestRobot\src\lib\formInfo.xaml</t>
+    <t>Test Message longer here</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Test Message Title longer here</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +257,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,23 +534,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="59.375" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,76 +561,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -638,28 +643,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -685,33 +690,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="b">
         <v>0</v>
@@ -721,61 +726,61 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -785,7 +790,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -795,7 +800,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -805,7 +810,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -815,7 +820,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -825,7 +830,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -835,7 +840,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -848,7 +853,7 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"In,Out"</formula1>
     </dataValidation>
   </dataValidations>
@@ -858,27 +863,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -904,107 +909,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1014,7 +1011,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1024,7 +1021,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1034,7 +1031,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1044,7 +1041,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1054,20 +1051,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"In,Out"</formula1>
     </dataValidation>
   </dataValidations>
